--- a/util/GSManage/양식/INVOICE-ENG.xlsx
+++ b/util/GSManage/양식/INVOICE-ENG.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t>Subject</t>
   </si>
@@ -96,14 +96,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>S. C. Jung</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Head of Parts &amp; Technical Sales Dep’t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Product Type </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -129,10 +121,6 @@
   </si>
   <si>
     <t xml:space="preserve">   3)  Terms of Payment : By net T/T within 30 days from the date of invoice.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   4)  It would be much appreciated if the remittance details could be advised to us upon payment being made.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -359,10 +347,6 @@
   </si>
   <si>
     <t>Great Park</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invoice : ERC1000010</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -481,44 +465,84 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>HHI2393</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Champion Prince</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3150-91229</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blackout test</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSBD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Person in Charge: Great Park</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Parts Sales Team 2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parts &amp; Technical Sales Dep't</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>TEL : +82 52 204 7731</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Flight Fee
+(Actual cost + Admin fee 15%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice : EMC1000150</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HHI2238</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSC PERLE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRYDOCK SERVICE FOR 6.6 K V SWITCHBOARD INCLUDING THERMOFRAPHIC INSPECTION</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vasia Theocharous (Ms.)
+Technical Purchasing Officer – Fleet 2    
+MSC SHIPMANAGEMENT LTD.   
+for the real world 
+8 Spyrou Kyprianou Avenue, Limassol, CY -3070 ,Cyprus
+vtheocharous@mscsmcy.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>59790183</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Service Engineering Charge
-(2men, 1 travelling days, 2 work days)</t>
+(2 S/E, 1 work day :1,190USD/day)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Travelling &amp; Wait Charge
+(2 S/E, 5 Days(40hr) : 120USD/hr</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accommodation &amp; Meal Fee
+(Actual cost + Admin fee 15%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y. H. Lim</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head of Warranty &amp; Technical Dep’t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field Service Team</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warranty &amp; Technical Dep't</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   4)  It would be much appreciated if the remittance details could be advised to us upon payment </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      being made.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +560,7 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,6 +896,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1658,7 +1688,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1851,9 +1881,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -1915,9 +1942,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="24">
       <alignment vertical="center"/>
     </xf>
@@ -2197,328 +2221,238 @@
     <xf numFmtId="41" fontId="43" fillId="0" borderId="51" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" xfId="24" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" xfId="24" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="22" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="43" fillId="0" borderId="44" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="43" fillId="0" borderId="43" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="8" xfId="29" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="29" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="7" borderId="20" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="23" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="2" borderId="8" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="2" borderId="16" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="16" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="43" fillId="2" borderId="45" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="43" fillId="2" borderId="43" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="8" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="16" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="43" fillId="7" borderId="44" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="43" fillId="7" borderId="43" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="20" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="7" borderId="21" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="7" borderId="16" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="52" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="29" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="30" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="49" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="20" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="17" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="18" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="47" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="21" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="43" fillId="0" borderId="45" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="43" fillId="7" borderId="45" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="43" fillId="7" borderId="43" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="7" borderId="8" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="43" fillId="2" borderId="45" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="43" fillId="2" borderId="43" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="43" fillId="7" borderId="50" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="43" fillId="7" borderId="44" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="41" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="7" borderId="41" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="37" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="37" fillId="0" borderId="8" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="37" fillId="0" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="20" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="15" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="29" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="29" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="7" borderId="20" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="7" borderId="15" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2592,24 +2526,48 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="24" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="8" xfId="29" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="29" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="41" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="37" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="37" fillId="0" borderId="8" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="37" fillId="0" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="29" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="29" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="15" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="37" fillId="7" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2619,44 +2577,158 @@
     <xf numFmtId="20" fontId="37" fillId="7" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="23" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="7" borderId="15" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="43" fillId="7" borderId="50" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="41" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="21" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="16" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="43" fillId="0" borderId="44" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="43" fillId="0" borderId="43" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="43" fillId="0" borderId="45" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="43" fillId="7" borderId="45" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="52" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="29" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="30" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="49" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="20" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="17" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="18" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="47" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -2712,6 +2784,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520213</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>226180</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4974982" y="7268307"/>
+          <a:ext cx="1251948" cy="1071929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2731,7 +2847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2801,61 +2917,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>102578</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>560510</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>128222</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4403481" y="8257443"/>
-          <a:ext cx="2157779" cy="509221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3221,10 +3282,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3246,24 +3307,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="194" t="s">
+      <c r="G1" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
     </row>
     <row r="2" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
     </row>
     <row r="3" spans="1:13" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H3" s="24"/>
@@ -3281,63 +3342,65 @@
     </row>
     <row r="5" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H5" s="35"/>
-      <c r="I5" s="81" t="s">
-        <v>84</v>
+      <c r="I5" s="80" t="s">
+        <v>91</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:13" s="73" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+    <row r="6" spans="1:13" s="72" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="67"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="190">
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="189">
         <f ca="1">TODAY()</f>
-        <v>42866</v>
-      </c>
-      <c r="K6" s="191"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="70"/>
-    </row>
-    <row r="7" spans="1:13" s="73" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>19</v>
+        <v>43095</v>
+      </c>
+      <c r="K6" s="190"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" s="72" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="M7" s="70"/>
-    </row>
-    <row r="8" spans="1:13" s="73" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="197"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:13" s="72" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="197" t="s">
+        <v>95</v>
+      </c>
       <c r="B8" s="198"/>
       <c r="C8" s="198"/>
       <c r="D8" s="198"/>
       <c r="E8" s="198"/>
       <c r="F8" s="198"/>
       <c r="G8" s="198"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="76"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
     </row>
     <row r="9" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="198"/>
@@ -3348,13 +3411,13 @@
       <c r="F9" s="198"/>
       <c r="G9" s="198"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
+      <c r="I9" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="195"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="10" spans="1:13" s="61" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="198"/>
@@ -3364,14 +3427,14 @@
       <c r="E10" s="198"/>
       <c r="F10" s="198"/>
       <c r="G10" s="198"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="185" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="195" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
     </row>
     <row r="11" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="198"/>
@@ -3382,13 +3445,13 @@
       <c r="F11" s="198"/>
       <c r="G11" s="198"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="185" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="185"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="185"/>
+      <c r="I11" s="195" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="195"/>
     </row>
     <row r="12" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="198"/>
@@ -3399,13 +3462,13 @@
       <c r="F12" s="198"/>
       <c r="G12" s="198"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="185" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="185"/>
-      <c r="K12" s="185"/>
-      <c r="L12" s="185"/>
-      <c r="M12" s="185"/>
+      <c r="I12" s="195" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
     </row>
     <row r="13" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="198"/>
@@ -3416,13 +3479,13 @@
       <c r="F13" s="198"/>
       <c r="G13" s="198"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="185" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="185"/>
-      <c r="K13" s="185"/>
-      <c r="L13" s="185"/>
-      <c r="M13" s="185"/>
+      <c r="I13" s="195" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
     </row>
     <row r="14" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="198"/>
@@ -3433,7 +3496,7 @@
       <c r="F14" s="198"/>
       <c r="G14" s="198"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="65"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="26"/>
@@ -3448,8 +3511,8 @@
       <c r="F15" s="198"/>
       <c r="G15" s="198"/>
       <c r="H15" s="30"/>
-      <c r="I15" s="82" t="s">
-        <v>97</v>
+      <c r="I15" s="81" t="s">
+        <v>88</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
@@ -3465,8 +3528,8 @@
       <c r="F16" s="198"/>
       <c r="G16" s="198"/>
       <c r="H16" s="31"/>
-      <c r="I16" s="66" t="s">
-        <v>98</v>
+      <c r="I16" s="65" t="s">
+        <v>102</v>
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
@@ -3482,8 +3545,8 @@
       <c r="F17" s="198"/>
       <c r="G17" s="198"/>
       <c r="H17" s="31"/>
-      <c r="I17" s="66" t="s">
-        <v>99</v>
+      <c r="I17" s="65" t="s">
+        <v>103</v>
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
@@ -3499,8 +3562,8 @@
       <c r="F18" s="198"/>
       <c r="G18" s="198"/>
       <c r="H18" s="31"/>
-      <c r="I18" s="66" t="s">
-        <v>100</v>
+      <c r="I18" s="65" t="s">
+        <v>89</v>
       </c>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
@@ -3517,7 +3580,7 @@
       <c r="G19" s="198"/>
       <c r="H19" s="27"/>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -3540,10 +3603,10 @@
       <c r="M20" s="43"/>
     </row>
     <row r="21" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="195" t="s">
+      <c r="A21" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="195"/>
+      <c r="B21" s="194"/>
       <c r="C21" s="49"/>
       <c r="D21" s="47" t="s">
         <v>92</v>
@@ -3569,30 +3632,28 @@
       <c r="B22" s="58"/>
       <c r="C22" s="46"/>
       <c r="D22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="5"/>
       <c r="H22" s="57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I22" s="58"/>
       <c r="J22" s="45"/>
-      <c r="K22" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="K22" s="3"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="60"/>
       <c r="C23" s="53"/>
-      <c r="D23" s="54" t="s">
-        <v>94</v>
+      <c r="D23" s="177" t="s">
+        <v>96</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
@@ -3603,7 +3664,7 @@
       <c r="I23" s="60"/>
       <c r="J23" s="52"/>
       <c r="K23" s="55" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L23" s="56"/>
       <c r="M23" s="56"/>
@@ -3659,137 +3720,173 @@
         <v>7</v>
       </c>
       <c r="J26" s="42"/>
-      <c r="K26" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="187" t="s">
+      <c r="K26" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="187"/>
+      <c r="M26" s="199"/>
       <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="178">
+        <v>1</v>
+      </c>
+      <c r="B27" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="182">
+        <v>1</v>
+      </c>
+      <c r="I27" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="180"/>
+      <c r="K27" s="183">
+        <f>1190*2</f>
+        <v>2380</v>
+      </c>
+      <c r="L27" s="191">
+        <f>H27*K27</f>
+        <v>2380</v>
+      </c>
+      <c r="M27" s="191"/>
+    </row>
+    <row r="28" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="184">
         <v>2</v>
       </c>
-      <c r="B27" s="193" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="84">
+      <c r="B28" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="209"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="185">
         <v>1</v>
       </c>
-      <c r="I27" s="178" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="179">
-        <v>10560</v>
-      </c>
-      <c r="L27" s="192">
-        <f>H27*K27</f>
-        <v>10560</v>
-      </c>
-      <c r="M27" s="192"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="181"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="6" t="s">
+      <c r="I28" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187">
+        <f>120*40*2</f>
+        <v>9600</v>
+      </c>
+      <c r="L28" s="210">
+        <f>H28*K28</f>
+        <v>9600</v>
+      </c>
+      <c r="M28" s="210"/>
+    </row>
+    <row r="29" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="184">
+        <v>3</v>
+      </c>
+      <c r="B29" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="209"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="209"/>
+      <c r="H29" s="185">
+        <v>1</v>
+      </c>
+      <c r="I29" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="186"/>
+      <c r="K29" s="187">
+        <f>(531900*2)/1079.2*1.15</f>
+        <v>1133.5896960711636</v>
+      </c>
+      <c r="L29" s="210">
+        <f>H29*K29</f>
+        <v>1133.5896960711636</v>
+      </c>
+      <c r="M29" s="210"/>
+    </row>
+    <row r="30" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="184">
+        <v>4</v>
+      </c>
+      <c r="B30" s="209" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="209"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="185">
+        <v>1</v>
+      </c>
+      <c r="I30" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="186"/>
+      <c r="K30" s="188">
+        <f>(1084461/1079.2)*1.15</f>
+        <v>1155.6061434395847</v>
+      </c>
+      <c r="L30" s="210">
+        <f>H30*K30</f>
+        <v>1155.6061434395847</v>
+      </c>
+      <c r="M30" s="210"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="178"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8" t="s">
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="186">
-        <f>SUM(L27:M27)</f>
-        <v>10560</v>
-      </c>
-      <c r="M28" s="186"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="6" t="s">
+      <c r="L31" s="207">
+        <f>SUM(L27:M30)</f>
+        <v>14269.195839510749</v>
+      </c>
+      <c r="M31" s="207"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="186"/>
-      <c r="M29" s="186"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="189"/>
-      <c r="M30" s="189"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="188">
-        <f>L28-L29-L30</f>
-        <v>10560</v>
-      </c>
-      <c r="M31" s="188"/>
-    </row>
-    <row r="32" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="206"/>
+      <c r="M32" s="206"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -3800,11 +3897,13 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="205"/>
+      <c r="M33" s="205"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -3813,15 +3912,20 @@
       <c r="F34" s="9"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="7"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="204">
+        <f>L31</f>
+        <v>14269.195839510749</v>
+      </c>
+      <c r="M34" s="204"/>
     </row>
     <row r="35" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="37"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3836,12 +3940,12 @@
     </row>
     <row r="36" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="6"/>
+      <c r="B36" s="208"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -3851,7 +3955,7 @@
     </row>
     <row r="37" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -3875,8 +3979,8 @@
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
-      <c r="K38" s="182"/>
-      <c r="L38" s="182"/>
+      <c r="K38" s="200"/>
+      <c r="L38" s="200"/>
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3897,14 +4001,14 @@
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:14" s="39" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
+      <c r="A40" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
       <c r="G40" s="38"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3914,14 +4018,14 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:14" s="39" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
+      <c r="A41" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
       <c r="G41" s="38"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3931,14 +4035,14 @@
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:14" s="39" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
+      <c r="A42" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
       <c r="G42" s="38"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3948,14 +4052,14 @@
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:14" s="39" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
+      <c r="A43" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
       <c r="G43" s="38"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3965,7 +4069,9 @@
       <c r="N43" s="40"/>
     </row>
     <row r="44" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="344" t="s">
+        <v>105</v>
+      </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -4049,11 +4155,11 @@
       <c r="G49" s="15"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="183" t="s">
-        <v>14</v>
-      </c>
-      <c r="L49" s="183"/>
-      <c r="M49" s="183"/>
+      <c r="K49" s="201" t="s">
+        <v>100</v>
+      </c>
+      <c r="L49" s="201"/>
+      <c r="M49" s="201"/>
     </row>
     <row r="50" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
@@ -4066,11 +4172,11 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
-      <c r="K50" s="184" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="184"/>
-      <c r="M50" s="184"/>
+      <c r="K50" s="203" t="s">
+        <v>101</v>
+      </c>
+      <c r="L50" s="203"/>
+      <c r="M50" s="203"/>
     </row>
     <row r="51" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36"/>
@@ -4087,27 +4193,24 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="63"/>
-    </row>
-    <row r="53" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="29">
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B36:G36"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="B27:G27"/>
@@ -4120,16 +4223,7 @@
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="I12:M12"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L29:M29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0"/>
@@ -4159,1887 +4253,2071 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
+      <c r="A1" s="125"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
     </row>
     <row r="2" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="166" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+    </row>
+    <row r="3" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="231" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="231"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+    </row>
+    <row r="4" spans="1:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+    </row>
+    <row r="5" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="128" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="232" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="214"/>
+      <c r="L5" s="146" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="260" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="261"/>
+    </row>
+    <row r="6" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="234" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="144" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="215"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="256"/>
+      <c r="N6" s="257"/>
+    </row>
+    <row r="7" spans="1:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-    </row>
-    <row r="3" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="326" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="326"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="326"/>
-      <c r="N3" s="326"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-    </row>
-    <row r="4" spans="1:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-    </row>
-    <row r="5" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="130" t="s">
+      <c r="B7" s="253"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="145" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="217"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="173" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="258">
+        <f ca="1">TODAY()</f>
+        <v>43095</v>
+      </c>
+      <c r="N7" s="259"/>
+    </row>
+    <row r="8" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="328"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="328"/>
-      <c r="F5" s="328"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="328"/>
-      <c r="I5" s="173" t="s">
+      <c r="B8" s="262" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="263" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="266" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="268"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="277" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="219" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="280" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="281" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="319" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="320"/>
-      <c r="L5" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="292" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5" s="293"/>
-    </row>
-    <row r="6" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="329" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="330"/>
-      <c r="F6" s="330"/>
-      <c r="G6" s="330"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="146" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="321"/>
-      <c r="K6" s="322"/>
-      <c r="L6" s="145" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="288"/>
-      <c r="N6" s="289"/>
-    </row>
-    <row r="7" spans="1:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="174" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="285"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="287"/>
-      <c r="I7" s="147" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="323"/>
-      <c r="K7" s="324"/>
-      <c r="L7" s="175" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="290">
-        <f ca="1">TODAY()</f>
-        <v>42866</v>
-      </c>
-      <c r="N7" s="291"/>
-    </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="294"/>
-      <c r="D8" s="294"/>
-      <c r="E8" s="295" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="296"/>
-      <c r="G8" s="296"/>
-      <c r="H8" s="297"/>
-      <c r="I8" s="123" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="123" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="92" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="298" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="300"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="279" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="217" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="258" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="312" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="258"/>
-      <c r="J9" s="259"/>
-      <c r="K9" s="260"/>
-      <c r="L9" s="260">
+      <c r="I9" s="280"/>
+      <c r="J9" s="309"/>
+      <c r="K9" s="310"/>
+      <c r="L9" s="310">
         <f>I9*8*K9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="261">
+      <c r="M9" s="311">
         <v>200</v>
       </c>
-      <c r="N9" s="256">
+      <c r="N9" s="308">
         <f>L9*M9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="299"/>
-      <c r="B10" s="303"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="305"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="310"/>
-      <c r="H10" s="313"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="252"/>
-      <c r="K10" s="222"/>
-      <c r="L10" s="222"/>
-      <c r="M10" s="230"/>
-      <c r="N10" s="249"/>
+      <c r="A10" s="267"/>
+      <c r="B10" s="271"/>
+      <c r="C10" s="272"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="227"/>
+      <c r="L10" s="227"/>
+      <c r="M10" s="248"/>
+      <c r="N10" s="250"/>
     </row>
     <row r="11" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="299"/>
-      <c r="B11" s="303"/>
-      <c r="C11" s="304"/>
-      <c r="D11" s="305"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="310"/>
-      <c r="H11" s="325" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="217">
+      <c r="A11" s="267"/>
+      <c r="B11" s="271"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="229" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="219">
         <v>2</v>
       </c>
-      <c r="J11" s="251">
+      <c r="J11" s="224">
         <v>8</v>
       </c>
-      <c r="K11" s="221">
+      <c r="K11" s="226">
         <v>3</v>
       </c>
-      <c r="L11" s="223">
+      <c r="L11" s="228">
         <f>I11*8*K11</f>
         <v>48</v>
       </c>
-      <c r="M11" s="250">
+      <c r="M11" s="247">
         <v>140</v>
       </c>
-      <c r="N11" s="257">
+      <c r="N11" s="249">
         <f>L11*M11</f>
         <v>6720</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="299"/>
-      <c r="B12" s="303"/>
-      <c r="C12" s="304"/>
-      <c r="D12" s="305"/>
-      <c r="E12" s="279"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="310"/>
-      <c r="H12" s="313"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="230"/>
-      <c r="N12" s="249"/>
+      <c r="A12" s="267"/>
+      <c r="B12" s="271"/>
+      <c r="C12" s="272"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="277"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="230"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="225"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="227"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="250"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="299"/>
-      <c r="B13" s="303"/>
-      <c r="C13" s="304"/>
-      <c r="D13" s="305"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="310"/>
-      <c r="H13" s="314" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="217"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="221"/>
-      <c r="L13" s="223">
+      <c r="A13" s="267"/>
+      <c r="B13" s="271"/>
+      <c r="C13" s="272"/>
+      <c r="D13" s="273"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="287" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="219"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="226"/>
+      <c r="L13" s="228">
         <f>I13*8*K13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="250">
+      <c r="M13" s="247">
         <v>80</v>
       </c>
-      <c r="N13" s="257">
+      <c r="N13" s="249">
         <f>L13*M13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="299"/>
-      <c r="B14" s="303"/>
-      <c r="C14" s="304"/>
-      <c r="D14" s="305"/>
-      <c r="E14" s="279"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="311"/>
-      <c r="H14" s="314"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="222"/>
-      <c r="L14" s="222"/>
-      <c r="M14" s="230"/>
-      <c r="N14" s="249"/>
+      <c r="A14" s="267"/>
+      <c r="B14" s="271"/>
+      <c r="C14" s="272"/>
+      <c r="D14" s="273"/>
+      <c r="E14" s="277"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="225"/>
+      <c r="K14" s="227"/>
+      <c r="L14" s="227"/>
+      <c r="M14" s="248"/>
+      <c r="N14" s="250"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="299"/>
-      <c r="B15" s="303"/>
-      <c r="C15" s="304"/>
-      <c r="D15" s="305"/>
-      <c r="E15" s="280"/>
-      <c r="F15" s="211" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="211" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="265" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="224"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="228"/>
-      <c r="L15" s="207">
+      <c r="A15" s="267"/>
+      <c r="B15" s="271"/>
+      <c r="C15" s="272"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="282" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="282" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="236"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="242">
         <f>I15*4*K15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="209">
+      <c r="M15" s="243">
         <v>200</v>
       </c>
-      <c r="N15" s="253">
+      <c r="N15" s="245">
         <f>L15*M15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="299"/>
-      <c r="B16" s="303"/>
-      <c r="C16" s="304"/>
-      <c r="D16" s="305"/>
-      <c r="E16" s="280"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="281"/>
-      <c r="H16" s="265"/>
-      <c r="I16" s="225"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="210"/>
-      <c r="N16" s="254"/>
+      <c r="A16" s="267"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="273"/>
+      <c r="E16" s="278"/>
+      <c r="F16" s="282"/>
+      <c r="G16" s="288"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="239"/>
+      <c r="K16" s="241"/>
+      <c r="L16" s="241"/>
+      <c r="M16" s="244"/>
+      <c r="N16" s="246"/>
     </row>
     <row r="17" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="299"/>
-      <c r="B17" s="303"/>
-      <c r="C17" s="304"/>
-      <c r="D17" s="305"/>
-      <c r="E17" s="280"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="281"/>
-      <c r="H17" s="265" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="224"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="228"/>
-      <c r="L17" s="207">
+      <c r="A17" s="267"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="278"/>
+      <c r="F17" s="282"/>
+      <c r="G17" s="288"/>
+      <c r="H17" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="236"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="242">
         <f>I17*4*K17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="209">
+      <c r="M17" s="243">
         <v>140</v>
       </c>
-      <c r="N17" s="253">
+      <c r="N17" s="245">
         <f t="shared" ref="N17" si="0">L17*M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="299"/>
-      <c r="B18" s="303"/>
-      <c r="C18" s="304"/>
-      <c r="D18" s="305"/>
-      <c r="E18" s="280"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="281"/>
-      <c r="H18" s="265"/>
-      <c r="I18" s="225"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="210"/>
-      <c r="N18" s="254"/>
+      <c r="A18" s="267"/>
+      <c r="B18" s="271"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="273"/>
+      <c r="E18" s="278"/>
+      <c r="F18" s="282"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="237"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="241"/>
+      <c r="L18" s="241"/>
+      <c r="M18" s="244"/>
+      <c r="N18" s="246"/>
     </row>
     <row r="19" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="299"/>
-      <c r="B19" s="303"/>
-      <c r="C19" s="304"/>
-      <c r="D19" s="305"/>
-      <c r="E19" s="280"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="281"/>
-      <c r="H19" s="266" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="224"/>
-      <c r="J19" s="226"/>
-      <c r="K19" s="228"/>
-      <c r="L19" s="207">
+      <c r="A19" s="267"/>
+      <c r="B19" s="271"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="278"/>
+      <c r="F19" s="282"/>
+      <c r="G19" s="288"/>
+      <c r="H19" s="290" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="236"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="240"/>
+      <c r="L19" s="242">
         <f>I19*4*K19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="209">
+      <c r="M19" s="243">
         <v>80</v>
       </c>
-      <c r="N19" s="253">
+      <c r="N19" s="245">
         <f t="shared" ref="N19" si="1">L19*M19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="299"/>
-      <c r="B20" s="303"/>
-      <c r="C20" s="304"/>
-      <c r="D20" s="305"/>
-      <c r="E20" s="280"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="282"/>
-      <c r="H20" s="265"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="208"/>
-      <c r="L20" s="208"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="254"/>
+      <c r="A20" s="267"/>
+      <c r="B20" s="271"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="273"/>
+      <c r="E20" s="278"/>
+      <c r="F20" s="283"/>
+      <c r="G20" s="289"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="237"/>
+      <c r="J20" s="239"/>
+      <c r="K20" s="241"/>
+      <c r="L20" s="241"/>
+      <c r="M20" s="244"/>
+      <c r="N20" s="246"/>
     </row>
     <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="299"/>
-      <c r="B21" s="303"/>
-      <c r="C21" s="304"/>
-      <c r="D21" s="305"/>
-      <c r="E21" s="280"/>
-      <c r="F21" s="217" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="315" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="283" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="217"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="221"/>
-      <c r="L21" s="223">
+      <c r="A21" s="267"/>
+      <c r="B21" s="271"/>
+      <c r="C21" s="272"/>
+      <c r="D21" s="273"/>
+      <c r="E21" s="278"/>
+      <c r="F21" s="219" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="291" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="223" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="219"/>
+      <c r="J21" s="342"/>
+      <c r="K21" s="226"/>
+      <c r="L21" s="228">
         <f>I21*J21*K21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="229">
+      <c r="M21" s="252">
         <v>250</v>
       </c>
-      <c r="N21" s="257">
+      <c r="N21" s="249">
         <f>L21*M21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
     </row>
     <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="299"/>
-      <c r="B22" s="303"/>
-      <c r="C22" s="304"/>
-      <c r="D22" s="305"/>
-      <c r="E22" s="280"/>
-      <c r="F22" s="217"/>
-      <c r="G22" s="316"/>
-      <c r="H22" s="283"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="222"/>
-      <c r="L22" s="222"/>
-      <c r="M22" s="230"/>
-      <c r="N22" s="249"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
+      <c r="A22" s="267"/>
+      <c r="B22" s="271"/>
+      <c r="C22" s="272"/>
+      <c r="D22" s="273"/>
+      <c r="E22" s="278"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="343"/>
+      <c r="K22" s="227"/>
+      <c r="L22" s="227"/>
+      <c r="M22" s="248"/>
+      <c r="N22" s="250"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
     </row>
     <row r="23" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="299"/>
-      <c r="B23" s="303"/>
-      <c r="C23" s="304"/>
-      <c r="D23" s="305"/>
-      <c r="E23" s="280"/>
-      <c r="F23" s="217"/>
-      <c r="G23" s="316"/>
-      <c r="H23" s="325" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="217"/>
-      <c r="J23" s="251"/>
-      <c r="K23" s="221"/>
-      <c r="L23" s="223">
+      <c r="A23" s="267"/>
+      <c r="B23" s="271"/>
+      <c r="C23" s="272"/>
+      <c r="D23" s="273"/>
+      <c r="E23" s="278"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="229" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="219"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="228">
         <f>I23*J23*K23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="229">
+      <c r="M23" s="252">
         <v>200</v>
       </c>
-      <c r="N23" s="257">
+      <c r="N23" s="249">
         <f t="shared" ref="N23" si="2">L23*M23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="124"/>
     </row>
     <row r="24" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="299"/>
-      <c r="B24" s="303"/>
-      <c r="C24" s="304"/>
-      <c r="D24" s="305"/>
-      <c r="E24" s="280"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="316"/>
-      <c r="H24" s="313"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="252"/>
-      <c r="K24" s="222"/>
-      <c r="L24" s="222"/>
-      <c r="M24" s="230"/>
-      <c r="N24" s="249"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
+      <c r="A24" s="267"/>
+      <c r="B24" s="271"/>
+      <c r="C24" s="272"/>
+      <c r="D24" s="273"/>
+      <c r="E24" s="278"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="292"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="227"/>
+      <c r="L24" s="227"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="250"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="124"/>
     </row>
     <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="299"/>
-      <c r="B25" s="303"/>
-      <c r="C25" s="304"/>
-      <c r="D25" s="305"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="217"/>
-      <c r="G25" s="316"/>
-      <c r="H25" s="314" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="217"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="221"/>
-      <c r="L25" s="223">
+      <c r="A25" s="267"/>
+      <c r="B25" s="271"/>
+      <c r="C25" s="272"/>
+      <c r="D25" s="273"/>
+      <c r="E25" s="278"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="292"/>
+      <c r="H25" s="287" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="219"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="226"/>
+      <c r="L25" s="228">
         <f>I25*J25*K25</f>
         <v>0</v>
       </c>
-      <c r="M25" s="250">
+      <c r="M25" s="247">
         <v>130</v>
       </c>
-      <c r="N25" s="257">
+      <c r="N25" s="249">
         <f t="shared" ref="N25" si="3">L25*M25</f>
         <v>0</v>
       </c>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
     </row>
     <row r="26" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="299"/>
-      <c r="B26" s="303"/>
-      <c r="C26" s="304"/>
-      <c r="D26" s="305"/>
-      <c r="E26" s="280"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="317"/>
-      <c r="H26" s="314"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="252"/>
-      <c r="K26" s="222"/>
-      <c r="L26" s="222"/>
-      <c r="M26" s="230"/>
-      <c r="N26" s="249"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
+      <c r="A26" s="267"/>
+      <c r="B26" s="271"/>
+      <c r="C26" s="272"/>
+      <c r="D26" s="273"/>
+      <c r="E26" s="278"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="293"/>
+      <c r="H26" s="287"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="225"/>
+      <c r="K26" s="227"/>
+      <c r="L26" s="227"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="250"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="299"/>
-      <c r="B27" s="303"/>
-      <c r="C27" s="304"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="280"/>
-      <c r="F27" s="211" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="262" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="265" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="224"/>
-      <c r="J27" s="226"/>
-      <c r="K27" s="228"/>
-      <c r="L27" s="207">
+      <c r="A27" s="267"/>
+      <c r="B27" s="271"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="273"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="282" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="284" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="236"/>
+      <c r="J27" s="238"/>
+      <c r="K27" s="240"/>
+      <c r="L27" s="242">
         <f>I27*J27*K27</f>
         <v>0</v>
       </c>
-      <c r="M27" s="209">
+      <c r="M27" s="243">
         <v>400</v>
       </c>
-      <c r="N27" s="253">
+      <c r="N27" s="245">
         <f>L27*M27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="299"/>
-      <c r="B28" s="303"/>
-      <c r="C28" s="304"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="263"/>
-      <c r="H28" s="265"/>
-      <c r="I28" s="225"/>
-      <c r="J28" s="227"/>
-      <c r="K28" s="208"/>
-      <c r="L28" s="208"/>
-      <c r="M28" s="210"/>
-      <c r="N28" s="254"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
+      <c r="A28" s="267"/>
+      <c r="B28" s="271"/>
+      <c r="C28" s="272"/>
+      <c r="D28" s="273"/>
+      <c r="E28" s="278"/>
+      <c r="F28" s="282"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="237"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="241"/>
+      <c r="L28" s="241"/>
+      <c r="M28" s="244"/>
+      <c r="N28" s="246"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="299"/>
-      <c r="B29" s="303"/>
-      <c r="C29" s="304"/>
-      <c r="D29" s="305"/>
-      <c r="E29" s="280"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="263"/>
-      <c r="H29" s="265" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="224"/>
-      <c r="J29" s="226"/>
-      <c r="K29" s="228"/>
-      <c r="L29" s="207">
+      <c r="A29" s="267"/>
+      <c r="B29" s="271"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="273"/>
+      <c r="E29" s="278"/>
+      <c r="F29" s="282"/>
+      <c r="G29" s="285"/>
+      <c r="H29" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="236"/>
+      <c r="J29" s="238"/>
+      <c r="K29" s="240"/>
+      <c r="L29" s="242">
         <f>I29*J29*K29</f>
         <v>0</v>
       </c>
-      <c r="M29" s="209">
+      <c r="M29" s="243">
         <v>300</v>
       </c>
-      <c r="N29" s="253">
+      <c r="N29" s="245">
         <f t="shared" ref="N29" si="4">L29*M29</f>
         <v>0</v>
       </c>
-      <c r="O29" s="126"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="124"/>
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="299"/>
-      <c r="B30" s="303"/>
-      <c r="C30" s="304"/>
-      <c r="D30" s="305"/>
-      <c r="E30" s="280"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="263"/>
-      <c r="H30" s="265"/>
-      <c r="I30" s="225"/>
-      <c r="J30" s="227"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
-      <c r="M30" s="210"/>
-      <c r="N30" s="254"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
+      <c r="A30" s="267"/>
+      <c r="B30" s="271"/>
+      <c r="C30" s="272"/>
+      <c r="D30" s="273"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="282"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="237"/>
+      <c r="J30" s="239"/>
+      <c r="K30" s="241"/>
+      <c r="L30" s="241"/>
+      <c r="M30" s="244"/>
+      <c r="N30" s="246"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
     </row>
     <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="299"/>
-      <c r="B31" s="303"/>
-      <c r="C31" s="304"/>
-      <c r="D31" s="305"/>
-      <c r="E31" s="280"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="263"/>
-      <c r="H31" s="266" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="224"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="228"/>
-      <c r="L31" s="207">
+      <c r="A31" s="267"/>
+      <c r="B31" s="271"/>
+      <c r="C31" s="272"/>
+      <c r="D31" s="273"/>
+      <c r="E31" s="278"/>
+      <c r="F31" s="282"/>
+      <c r="G31" s="285"/>
+      <c r="H31" s="290" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="236"/>
+      <c r="J31" s="238"/>
+      <c r="K31" s="240"/>
+      <c r="L31" s="242">
         <f>I31*J31*K31</f>
         <v>0</v>
       </c>
-      <c r="M31" s="209">
+      <c r="M31" s="243">
         <v>170</v>
       </c>
-      <c r="N31" s="253">
+      <c r="N31" s="245">
         <f t="shared" ref="N31" si="5">L31*M31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="299"/>
-      <c r="B32" s="303"/>
-      <c r="C32" s="304"/>
-      <c r="D32" s="305"/>
-      <c r="E32" s="280"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="264"/>
-      <c r="H32" s="265"/>
-      <c r="I32" s="225"/>
-      <c r="J32" s="227"/>
-      <c r="K32" s="208"/>
-      <c r="L32" s="208"/>
-      <c r="M32" s="210"/>
-      <c r="N32" s="254"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
+      <c r="A32" s="267"/>
+      <c r="B32" s="271"/>
+      <c r="C32" s="272"/>
+      <c r="D32" s="273"/>
+      <c r="E32" s="278"/>
+      <c r="F32" s="283"/>
+      <c r="G32" s="286"/>
+      <c r="H32" s="251"/>
+      <c r="I32" s="237"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="241"/>
+      <c r="L32" s="241"/>
+      <c r="M32" s="244"/>
+      <c r="N32" s="246"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
     </row>
     <row r="33" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="299"/>
-      <c r="B33" s="303"/>
-      <c r="C33" s="304"/>
-      <c r="D33" s="305"/>
-      <c r="E33" s="309"/>
-      <c r="F33" s="149" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="151">
+      <c r="A33" s="267"/>
+      <c r="B33" s="271"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="273"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="149">
         <f>SUM(L9:L32)</f>
         <v>48</v>
       </c>
-      <c r="M33" s="152"/>
-      <c r="N33" s="153">
+      <c r="M33" s="150"/>
+      <c r="N33" s="151">
         <f>SUM(N9:N32)</f>
         <v>6720</v>
       </c>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
     </row>
     <row r="34" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="299"/>
-      <c r="B34" s="303"/>
-      <c r="C34" s="304"/>
-      <c r="D34" s="305"/>
-      <c r="E34" s="278" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="211" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="201" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="265" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="211"/>
-      <c r="J34" s="255"/>
-      <c r="K34" s="214"/>
-      <c r="L34" s="214">
+      <c r="A34" s="267"/>
+      <c r="B34" s="271"/>
+      <c r="C34" s="272"/>
+      <c r="D34" s="273"/>
+      <c r="E34" s="305" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="282" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="306" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="282"/>
+      <c r="J34" s="312"/>
+      <c r="K34" s="314"/>
+      <c r="L34" s="314">
         <f>I34*8*K34</f>
         <v>0</v>
       </c>
-      <c r="M34" s="246">
+      <c r="M34" s="318">
         <v>300</v>
       </c>
-      <c r="N34" s="199">
+      <c r="N34" s="320">
         <f>L34*M34</f>
         <v>0</v>
       </c>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
     </row>
     <row r="35" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="299"/>
-      <c r="B35" s="303"/>
-      <c r="C35" s="304"/>
-      <c r="D35" s="305"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="211"/>
-      <c r="G35" s="281"/>
-      <c r="H35" s="265"/>
-      <c r="I35" s="202"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="206"/>
-      <c r="L35" s="206"/>
-      <c r="M35" s="216"/>
-      <c r="N35" s="200"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="88"/>
+      <c r="A35" s="267"/>
+      <c r="B35" s="271"/>
+      <c r="C35" s="272"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="277"/>
+      <c r="F35" s="282"/>
+      <c r="G35" s="288"/>
+      <c r="H35" s="251"/>
+      <c r="I35" s="283"/>
+      <c r="J35" s="313"/>
+      <c r="K35" s="315"/>
+      <c r="L35" s="315"/>
+      <c r="M35" s="319"/>
+      <c r="N35" s="321"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="86"/>
     </row>
     <row r="36" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="299"/>
-      <c r="B36" s="303"/>
-      <c r="C36" s="304"/>
-      <c r="D36" s="305"/>
-      <c r="E36" s="279"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="281"/>
-      <c r="H36" s="276" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="211"/>
-      <c r="J36" s="212"/>
-      <c r="K36" s="214"/>
-      <c r="L36" s="214">
+      <c r="A36" s="267"/>
+      <c r="B36" s="271"/>
+      <c r="C36" s="272"/>
+      <c r="D36" s="273"/>
+      <c r="E36" s="277"/>
+      <c r="F36" s="282"/>
+      <c r="G36" s="288"/>
+      <c r="H36" s="303" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="282"/>
+      <c r="J36" s="316"/>
+      <c r="K36" s="314"/>
+      <c r="L36" s="314">
         <f>I36*8*K36</f>
         <v>0</v>
       </c>
-      <c r="M36" s="246">
+      <c r="M36" s="318">
         <v>200</v>
       </c>
-      <c r="N36" s="199">
+      <c r="N36" s="320">
         <f t="shared" ref="N36" si="6">L36*M36</f>
         <v>0</v>
       </c>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="129"/>
+      <c r="O36" s="124"/>
+      <c r="P36" s="124"/>
+      <c r="Q36" s="124"/>
+      <c r="R36" s="127"/>
     </row>
     <row r="37" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="299"/>
-      <c r="B37" s="303"/>
-      <c r="C37" s="304"/>
-      <c r="D37" s="305"/>
-      <c r="E37" s="279"/>
-      <c r="F37" s="211"/>
-      <c r="G37" s="281"/>
-      <c r="H37" s="277"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="206"/>
-      <c r="L37" s="206"/>
-      <c r="M37" s="216"/>
-      <c r="N37" s="200"/>
-      <c r="O37" s="126"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="129"/>
+      <c r="A37" s="267"/>
+      <c r="B37" s="271"/>
+      <c r="C37" s="272"/>
+      <c r="D37" s="273"/>
+      <c r="E37" s="277"/>
+      <c r="F37" s="282"/>
+      <c r="G37" s="288"/>
+      <c r="H37" s="304"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="317"/>
+      <c r="K37" s="315"/>
+      <c r="L37" s="315"/>
+      <c r="M37" s="319"/>
+      <c r="N37" s="321"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="124"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="127"/>
     </row>
     <row r="38" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="299"/>
-      <c r="B38" s="303"/>
-      <c r="C38" s="304"/>
-      <c r="D38" s="305"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="211"/>
-      <c r="G38" s="281"/>
-      <c r="H38" s="276" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="211"/>
-      <c r="J38" s="212"/>
-      <c r="K38" s="214"/>
-      <c r="L38" s="214">
+      <c r="A38" s="267"/>
+      <c r="B38" s="271"/>
+      <c r="C38" s="272"/>
+      <c r="D38" s="273"/>
+      <c r="E38" s="277"/>
+      <c r="F38" s="282"/>
+      <c r="G38" s="288"/>
+      <c r="H38" s="303" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="282"/>
+      <c r="J38" s="316"/>
+      <c r="K38" s="314"/>
+      <c r="L38" s="314">
         <f>I38*8*K38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="215">
+      <c r="M38" s="323">
         <v>110</v>
       </c>
-      <c r="N38" s="199">
+      <c r="N38" s="320">
         <f t="shared" ref="N38" si="7">L38*M38</f>
         <v>0</v>
       </c>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
     </row>
     <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="299"/>
-      <c r="B39" s="303"/>
-      <c r="C39" s="304"/>
-      <c r="D39" s="305"/>
-      <c r="E39" s="279"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="282"/>
-      <c r="H39" s="277"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="206"/>
-      <c r="L39" s="206"/>
-      <c r="M39" s="216"/>
-      <c r="N39" s="200"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
+      <c r="A39" s="267"/>
+      <c r="B39" s="271"/>
+      <c r="C39" s="272"/>
+      <c r="D39" s="273"/>
+      <c r="E39" s="277"/>
+      <c r="F39" s="283"/>
+      <c r="G39" s="289"/>
+      <c r="H39" s="304"/>
+      <c r="I39" s="283"/>
+      <c r="J39" s="317"/>
+      <c r="K39" s="315"/>
+      <c r="L39" s="315"/>
+      <c r="M39" s="319"/>
+      <c r="N39" s="321"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
     </row>
     <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="299"/>
-      <c r="B40" s="303"/>
-      <c r="C40" s="304"/>
-      <c r="D40" s="305"/>
-      <c r="E40" s="280"/>
-      <c r="F40" s="217" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="217" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="283" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="217"/>
-      <c r="J40" s="251"/>
-      <c r="K40" s="221"/>
-      <c r="L40" s="223">
+      <c r="A40" s="267"/>
+      <c r="B40" s="271"/>
+      <c r="C40" s="272"/>
+      <c r="D40" s="273"/>
+      <c r="E40" s="278"/>
+      <c r="F40" s="219" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="219" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="223" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="219"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="226"/>
+      <c r="L40" s="228">
         <f>I40*4*K40</f>
         <v>0</v>
       </c>
-      <c r="M40" s="250">
+      <c r="M40" s="247">
         <v>300</v>
       </c>
-      <c r="N40" s="248">
+      <c r="N40" s="325">
         <f>L40*M40</f>
         <v>0</v>
       </c>
-      <c r="O40" s="133"/>
-      <c r="P40" s="133"/>
-      <c r="Q40" s="133"/>
-      <c r="R40" s="133"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="131"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="131"/>
     </row>
     <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="299"/>
-      <c r="B41" s="303"/>
-      <c r="C41" s="304"/>
-      <c r="D41" s="305"/>
-      <c r="E41" s="280"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="310"/>
-      <c r="H41" s="283"/>
-      <c r="I41" s="218"/>
-      <c r="J41" s="252"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="222"/>
-      <c r="M41" s="230"/>
-      <c r="N41" s="249"/>
-      <c r="O41" s="133"/>
-      <c r="P41" s="133"/>
-      <c r="Q41" s="133"/>
-      <c r="R41" s="133"/>
+      <c r="A41" s="267"/>
+      <c r="B41" s="271"/>
+      <c r="C41" s="272"/>
+      <c r="D41" s="273"/>
+      <c r="E41" s="278"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="225"/>
+      <c r="K41" s="227"/>
+      <c r="L41" s="227"/>
+      <c r="M41" s="248"/>
+      <c r="N41" s="250"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="131"/>
+      <c r="Q41" s="131"/>
+      <c r="R41" s="131"/>
     </row>
     <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="299"/>
-      <c r="B42" s="303"/>
-      <c r="C42" s="304"/>
-      <c r="D42" s="305"/>
-      <c r="E42" s="280"/>
-      <c r="F42" s="217"/>
-      <c r="G42" s="310"/>
-      <c r="H42" s="283" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="217"/>
-      <c r="J42" s="251"/>
-      <c r="K42" s="221"/>
-      <c r="L42" s="223">
+      <c r="A42" s="267"/>
+      <c r="B42" s="271"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="273"/>
+      <c r="E42" s="278"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="223" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="219"/>
+      <c r="J42" s="224"/>
+      <c r="K42" s="226"/>
+      <c r="L42" s="228">
         <f>I42*4*K42</f>
         <v>0</v>
       </c>
-      <c r="M42" s="250">
+      <c r="M42" s="247">
         <v>200</v>
       </c>
-      <c r="N42" s="248">
+      <c r="N42" s="325">
         <f t="shared" ref="N42" si="8">L42*M42</f>
         <v>0</v>
       </c>
-      <c r="O42" s="133"/>
-      <c r="P42" s="133"/>
-      <c r="Q42" s="133"/>
-      <c r="R42" s="133"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="131"/>
+      <c r="Q42" s="131"/>
+      <c r="R42" s="131"/>
     </row>
     <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="299"/>
-      <c r="B43" s="303"/>
-      <c r="C43" s="304"/>
-      <c r="D43" s="305"/>
-      <c r="E43" s="280"/>
-      <c r="F43" s="217"/>
-      <c r="G43" s="310"/>
-      <c r="H43" s="283"/>
-      <c r="I43" s="218"/>
-      <c r="J43" s="252"/>
-      <c r="K43" s="222"/>
-      <c r="L43" s="222"/>
-      <c r="M43" s="230"/>
-      <c r="N43" s="249"/>
-      <c r="O43" s="133"/>
-      <c r="P43" s="133"/>
-      <c r="Q43" s="133"/>
-      <c r="R43" s="133"/>
+      <c r="A43" s="267"/>
+      <c r="B43" s="271"/>
+      <c r="C43" s="272"/>
+      <c r="D43" s="273"/>
+      <c r="E43" s="278"/>
+      <c r="F43" s="219"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="223"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="225"/>
+      <c r="K43" s="227"/>
+      <c r="L43" s="227"/>
+      <c r="M43" s="248"/>
+      <c r="N43" s="250"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="131"/>
+      <c r="Q43" s="131"/>
+      <c r="R43" s="131"/>
     </row>
     <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="299"/>
-      <c r="B44" s="303"/>
-      <c r="C44" s="304"/>
-      <c r="D44" s="305"/>
-      <c r="E44" s="280"/>
-      <c r="F44" s="217"/>
-      <c r="G44" s="310"/>
-      <c r="H44" s="284" t="s">
-        <v>69</v>
-      </c>
-      <c r="I44" s="217"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="221"/>
-      <c r="L44" s="221">
+      <c r="A44" s="267"/>
+      <c r="B44" s="271"/>
+      <c r="C44" s="272"/>
+      <c r="D44" s="273"/>
+      <c r="E44" s="278"/>
+      <c r="F44" s="219"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="307" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="219"/>
+      <c r="J44" s="224"/>
+      <c r="K44" s="226"/>
+      <c r="L44" s="226">
         <f>I44*4*K44</f>
         <v>0</v>
       </c>
-      <c r="M44" s="250">
+      <c r="M44" s="247">
         <v>110</v>
       </c>
-      <c r="N44" s="248">
+      <c r="N44" s="325">
         <f t="shared" ref="N44" si="9">L44*M44</f>
         <v>0</v>
       </c>
-      <c r="O44" s="133"/>
-      <c r="P44" s="133"/>
-      <c r="Q44" s="133"/>
-      <c r="R44" s="133"/>
+      <c r="O44" s="131"/>
+      <c r="P44" s="131"/>
+      <c r="Q44" s="131"/>
+      <c r="R44" s="131"/>
     </row>
     <row r="45" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="299"/>
-      <c r="B45" s="303"/>
-      <c r="C45" s="304"/>
-      <c r="D45" s="305"/>
-      <c r="E45" s="280"/>
-      <c r="F45" s="218"/>
-      <c r="G45" s="311"/>
-      <c r="H45" s="283"/>
-      <c r="I45" s="218"/>
-      <c r="J45" s="252"/>
-      <c r="K45" s="222"/>
-      <c r="L45" s="222"/>
-      <c r="M45" s="230"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="133"/>
-      <c r="R45" s="133"/>
+      <c r="A45" s="267"/>
+      <c r="B45" s="271"/>
+      <c r="C45" s="272"/>
+      <c r="D45" s="273"/>
+      <c r="E45" s="278"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="222"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="225"/>
+      <c r="K45" s="227"/>
+      <c r="L45" s="227"/>
+      <c r="M45" s="248"/>
+      <c r="N45" s="250"/>
+      <c r="O45" s="131"/>
+      <c r="P45" s="131"/>
+      <c r="Q45" s="131"/>
+      <c r="R45" s="131"/>
     </row>
     <row r="46" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="299"/>
-      <c r="B46" s="303"/>
-      <c r="C46" s="304"/>
-      <c r="D46" s="305"/>
-      <c r="E46" s="280"/>
-      <c r="F46" s="211" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="262" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="265" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="211"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="214"/>
-      <c r="L46" s="205">
+      <c r="A46" s="267"/>
+      <c r="B46" s="271"/>
+      <c r="C46" s="272"/>
+      <c r="D46" s="273"/>
+      <c r="E46" s="278"/>
+      <c r="F46" s="282" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="284" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="282"/>
+      <c r="J46" s="316"/>
+      <c r="K46" s="314"/>
+      <c r="L46" s="322">
         <f>I46*J46*K46</f>
         <v>0</v>
       </c>
-      <c r="M46" s="215">
+      <c r="M46" s="323">
         <v>400</v>
       </c>
-      <c r="N46" s="247">
+      <c r="N46" s="324">
         <f>L46*M46</f>
         <v>0</v>
       </c>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="83"/>
     </row>
     <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="299"/>
-      <c r="B47" s="303"/>
-      <c r="C47" s="304"/>
-      <c r="D47" s="305"/>
-      <c r="E47" s="280"/>
-      <c r="F47" s="211"/>
-      <c r="G47" s="263"/>
-      <c r="H47" s="265"/>
-      <c r="I47" s="202"/>
-      <c r="J47" s="213"/>
-      <c r="K47" s="206"/>
-      <c r="L47" s="206"/>
-      <c r="M47" s="216"/>
-      <c r="N47" s="200"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="85"/>
-      <c r="R47" s="85"/>
-      <c r="S47" s="85"/>
+      <c r="A47" s="267"/>
+      <c r="B47" s="271"/>
+      <c r="C47" s="272"/>
+      <c r="D47" s="273"/>
+      <c r="E47" s="278"/>
+      <c r="F47" s="282"/>
+      <c r="G47" s="285"/>
+      <c r="H47" s="251"/>
+      <c r="I47" s="283"/>
+      <c r="J47" s="317"/>
+      <c r="K47" s="315"/>
+      <c r="L47" s="315"/>
+      <c r="M47" s="319"/>
+      <c r="N47" s="321"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="83"/>
     </row>
     <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="299"/>
-      <c r="B48" s="303"/>
-      <c r="C48" s="304"/>
-      <c r="D48" s="305"/>
-      <c r="E48" s="280"/>
-      <c r="F48" s="211"/>
-      <c r="G48" s="263"/>
-      <c r="H48" s="265" t="s">
-        <v>68</v>
-      </c>
-      <c r="I48" s="211"/>
-      <c r="J48" s="212"/>
-      <c r="K48" s="214"/>
-      <c r="L48" s="205">
+      <c r="A48" s="267"/>
+      <c r="B48" s="271"/>
+      <c r="C48" s="272"/>
+      <c r="D48" s="273"/>
+      <c r="E48" s="278"/>
+      <c r="F48" s="282"/>
+      <c r="G48" s="285"/>
+      <c r="H48" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="282"/>
+      <c r="J48" s="316"/>
+      <c r="K48" s="314"/>
+      <c r="L48" s="322">
         <f>I48*J48*K48</f>
         <v>0</v>
       </c>
-      <c r="M48" s="215">
+      <c r="M48" s="323">
         <v>300</v>
       </c>
-      <c r="N48" s="247">
+      <c r="N48" s="324">
         <f t="shared" ref="N48" si="10">L48*M48</f>
         <v>0</v>
       </c>
-      <c r="O48" s="126"/>
-      <c r="P48" s="126"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="126"/>
+      <c r="O48" s="124"/>
+      <c r="P48" s="124"/>
+      <c r="Q48" s="124"/>
+      <c r="R48" s="124"/>
+      <c r="S48" s="124"/>
     </row>
     <row r="49" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="299"/>
-      <c r="B49" s="303"/>
-      <c r="C49" s="304"/>
-      <c r="D49" s="305"/>
-      <c r="E49" s="280"/>
-      <c r="F49" s="211"/>
-      <c r="G49" s="263"/>
-      <c r="H49" s="265"/>
-      <c r="I49" s="202"/>
-      <c r="J49" s="213"/>
-      <c r="K49" s="206"/>
-      <c r="L49" s="206"/>
-      <c r="M49" s="216"/>
-      <c r="N49" s="200"/>
-      <c r="O49" s="126"/>
-      <c r="P49" s="126"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="126"/>
+      <c r="A49" s="267"/>
+      <c r="B49" s="271"/>
+      <c r="C49" s="272"/>
+      <c r="D49" s="273"/>
+      <c r="E49" s="278"/>
+      <c r="F49" s="282"/>
+      <c r="G49" s="285"/>
+      <c r="H49" s="251"/>
+      <c r="I49" s="283"/>
+      <c r="J49" s="317"/>
+      <c r="K49" s="315"/>
+      <c r="L49" s="315"/>
+      <c r="M49" s="319"/>
+      <c r="N49" s="321"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="124"/>
+      <c r="Q49" s="124"/>
+      <c r="R49" s="124"/>
+      <c r="S49" s="124"/>
     </row>
     <row r="50" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="299"/>
-      <c r="B50" s="303"/>
-      <c r="C50" s="304"/>
-      <c r="D50" s="305"/>
-      <c r="E50" s="280"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="263"/>
-      <c r="H50" s="266" t="s">
-        <v>69</v>
-      </c>
-      <c r="I50" s="211"/>
-      <c r="J50" s="212"/>
-      <c r="K50" s="214"/>
-      <c r="L50" s="214">
+      <c r="A50" s="267"/>
+      <c r="B50" s="271"/>
+      <c r="C50" s="272"/>
+      <c r="D50" s="273"/>
+      <c r="E50" s="278"/>
+      <c r="F50" s="282"/>
+      <c r="G50" s="285"/>
+      <c r="H50" s="290" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="282"/>
+      <c r="J50" s="316"/>
+      <c r="K50" s="314"/>
+      <c r="L50" s="314">
         <f>I50*J50*K50</f>
         <v>0</v>
       </c>
-      <c r="M50" s="215">
+      <c r="M50" s="323">
         <v>170</v>
       </c>
-      <c r="N50" s="247">
+      <c r="N50" s="324">
         <f t="shared" ref="N50" si="11">L50*M50</f>
         <v>0</v>
       </c>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-      <c r="Q50" s="85"/>
-      <c r="R50" s="85"/>
-      <c r="S50" s="85"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="83"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="83"/>
     </row>
     <row r="51" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="299"/>
-      <c r="B51" s="303"/>
-      <c r="C51" s="304"/>
-      <c r="D51" s="305"/>
-      <c r="E51" s="280"/>
-      <c r="F51" s="202"/>
-      <c r="G51" s="264"/>
-      <c r="H51" s="265"/>
-      <c r="I51" s="202"/>
-      <c r="J51" s="213"/>
-      <c r="K51" s="206"/>
-      <c r="L51" s="206"/>
-      <c r="M51" s="216"/>
-      <c r="N51" s="200"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-      <c r="Q51" s="85"/>
-      <c r="R51" s="85"/>
-      <c r="S51" s="85"/>
+      <c r="A51" s="267"/>
+      <c r="B51" s="271"/>
+      <c r="C51" s="272"/>
+      <c r="D51" s="273"/>
+      <c r="E51" s="278"/>
+      <c r="F51" s="283"/>
+      <c r="G51" s="286"/>
+      <c r="H51" s="251"/>
+      <c r="I51" s="283"/>
+      <c r="J51" s="317"/>
+      <c r="K51" s="315"/>
+      <c r="L51" s="315"/>
+      <c r="M51" s="319"/>
+      <c r="N51" s="321"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
     </row>
     <row r="52" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="299"/>
-      <c r="B52" s="303"/>
-      <c r="C52" s="304"/>
-      <c r="D52" s="305"/>
-      <c r="E52" s="280"/>
-      <c r="F52" s="149" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="149"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="154"/>
-      <c r="K52" s="154"/>
-      <c r="L52" s="155">
+      <c r="A52" s="267"/>
+      <c r="B52" s="271"/>
+      <c r="C52" s="272"/>
+      <c r="D52" s="273"/>
+      <c r="E52" s="278"/>
+      <c r="F52" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="147"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="152"/>
+      <c r="L52" s="153">
         <f>SUM(L34:L51)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="156"/>
-      <c r="N52" s="157">
+      <c r="M52" s="154"/>
+      <c r="N52" s="155">
         <f>SUM(N34:N51)</f>
         <v>0</v>
       </c>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-      <c r="Q52" s="85"/>
-      <c r="R52" s="85"/>
-      <c r="S52" s="85"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
     </row>
     <row r="53" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="299"/>
-      <c r="B53" s="303"/>
-      <c r="C53" s="304"/>
-      <c r="D53" s="305"/>
-      <c r="E53" s="267" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="268"/>
-      <c r="G53" s="269"/>
-      <c r="H53" s="265" t="s">
-        <v>79</v>
-      </c>
-      <c r="I53" s="201"/>
-      <c r="J53" s="203"/>
-      <c r="K53" s="205"/>
-      <c r="L53" s="205">
+      <c r="A53" s="267"/>
+      <c r="B53" s="271"/>
+      <c r="C53" s="272"/>
+      <c r="D53" s="273"/>
+      <c r="E53" s="294" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="295"/>
+      <c r="G53" s="296"/>
+      <c r="H53" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="306"/>
+      <c r="J53" s="341"/>
+      <c r="K53" s="322"/>
+      <c r="L53" s="322">
         <f>I53*J53</f>
         <v>0</v>
       </c>
-      <c r="M53" s="246">
+      <c r="M53" s="318">
         <v>170</v>
       </c>
-      <c r="N53" s="247">
+      <c r="N53" s="324">
         <f>L53*M53</f>
         <v>0</v>
       </c>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
     </row>
     <row r="54" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="299"/>
-      <c r="B54" s="303"/>
-      <c r="C54" s="304"/>
-      <c r="D54" s="305"/>
-      <c r="E54" s="270"/>
-      <c r="F54" s="271"/>
-      <c r="G54" s="272"/>
-      <c r="H54" s="265"/>
-      <c r="I54" s="202"/>
-      <c r="J54" s="204"/>
-      <c r="K54" s="206"/>
-      <c r="L54" s="206"/>
-      <c r="M54" s="216"/>
-      <c r="N54" s="200"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="85"/>
-      <c r="S54" s="85"/>
+      <c r="A54" s="267"/>
+      <c r="B54" s="271"/>
+      <c r="C54" s="272"/>
+      <c r="D54" s="273"/>
+      <c r="E54" s="297"/>
+      <c r="F54" s="298"/>
+      <c r="G54" s="299"/>
+      <c r="H54" s="251"/>
+      <c r="I54" s="283"/>
+      <c r="J54" s="313"/>
+      <c r="K54" s="315"/>
+      <c r="L54" s="315"/>
+      <c r="M54" s="319"/>
+      <c r="N54" s="321"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="83"/>
+      <c r="S54" s="83"/>
     </row>
     <row r="55" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="299"/>
-      <c r="B55" s="303"/>
-      <c r="C55" s="304"/>
-      <c r="D55" s="305"/>
-      <c r="E55" s="270"/>
-      <c r="F55" s="271"/>
-      <c r="G55" s="272"/>
-      <c r="H55" s="276" t="s">
-        <v>68</v>
-      </c>
-      <c r="I55" s="211">
+      <c r="A55" s="267"/>
+      <c r="B55" s="271"/>
+      <c r="C55" s="272"/>
+      <c r="D55" s="273"/>
+      <c r="E55" s="297"/>
+      <c r="F55" s="298"/>
+      <c r="G55" s="299"/>
+      <c r="H55" s="303" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="282">
         <v>2</v>
       </c>
-      <c r="J55" s="212">
+      <c r="J55" s="316">
         <v>8</v>
       </c>
-      <c r="K55" s="214">
+      <c r="K55" s="314">
         <v>2</v>
       </c>
-      <c r="L55" s="214">
+      <c r="L55" s="314">
         <f>I55*J55*K55</f>
         <v>32</v>
       </c>
-      <c r="M55" s="246">
+      <c r="M55" s="318">
         <v>120</v>
       </c>
-      <c r="N55" s="199">
+      <c r="N55" s="320">
         <f t="shared" ref="N55" si="12">L55*M55</f>
         <v>3840</v>
       </c>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="126"/>
+      <c r="O55" s="124"/>
+      <c r="P55" s="124"/>
+      <c r="Q55" s="124"/>
+      <c r="R55" s="124"/>
+      <c r="S55" s="124"/>
     </row>
     <row r="56" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="299"/>
-      <c r="B56" s="303"/>
-      <c r="C56" s="304"/>
-      <c r="D56" s="305"/>
-      <c r="E56" s="270"/>
-      <c r="F56" s="271"/>
-      <c r="G56" s="272"/>
-      <c r="H56" s="277"/>
-      <c r="I56" s="202"/>
-      <c r="J56" s="213"/>
-      <c r="K56" s="206"/>
-      <c r="L56" s="206"/>
-      <c r="M56" s="216"/>
-      <c r="N56" s="200"/>
-      <c r="O56" s="126"/>
-      <c r="P56" s="126"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
-      <c r="S56" s="126"/>
+      <c r="A56" s="267"/>
+      <c r="B56" s="271"/>
+      <c r="C56" s="272"/>
+      <c r="D56" s="273"/>
+      <c r="E56" s="297"/>
+      <c r="F56" s="298"/>
+      <c r="G56" s="299"/>
+      <c r="H56" s="304"/>
+      <c r="I56" s="283"/>
+      <c r="J56" s="317"/>
+      <c r="K56" s="315"/>
+      <c r="L56" s="315"/>
+      <c r="M56" s="319"/>
+      <c r="N56" s="321"/>
+      <c r="O56" s="124"/>
+      <c r="P56" s="124"/>
+      <c r="Q56" s="124"/>
+      <c r="R56" s="124"/>
+      <c r="S56" s="124"/>
     </row>
     <row r="57" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="299"/>
-      <c r="B57" s="303"/>
-      <c r="C57" s="304"/>
-      <c r="D57" s="305"/>
-      <c r="E57" s="270"/>
-      <c r="F57" s="271"/>
-      <c r="G57" s="272"/>
-      <c r="H57" s="276" t="s">
-        <v>69</v>
-      </c>
-      <c r="I57" s="211"/>
-      <c r="J57" s="212"/>
-      <c r="K57" s="214"/>
-      <c r="L57" s="214">
+      <c r="A57" s="267"/>
+      <c r="B57" s="271"/>
+      <c r="C57" s="272"/>
+      <c r="D57" s="273"/>
+      <c r="E57" s="297"/>
+      <c r="F57" s="298"/>
+      <c r="G57" s="299"/>
+      <c r="H57" s="303" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" s="282"/>
+      <c r="J57" s="316"/>
+      <c r="K57" s="314"/>
+      <c r="L57" s="314">
         <f>I57*J57</f>
         <v>0</v>
       </c>
-      <c r="M57" s="215">
+      <c r="M57" s="323">
         <v>70</v>
       </c>
-      <c r="N57" s="199">
+      <c r="N57" s="320">
         <f t="shared" ref="N57" si="13">L57*M57</f>
         <v>0</v>
       </c>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-      <c r="Q57" s="85"/>
-      <c r="R57" s="85"/>
-      <c r="S57" s="85"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="83"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
     </row>
     <row r="58" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="299"/>
-      <c r="B58" s="306"/>
-      <c r="C58" s="307"/>
-      <c r="D58" s="308"/>
-      <c r="E58" s="273"/>
-      <c r="F58" s="274"/>
-      <c r="G58" s="275"/>
-      <c r="H58" s="277"/>
-      <c r="I58" s="202"/>
-      <c r="J58" s="213"/>
-      <c r="K58" s="206"/>
-      <c r="L58" s="206"/>
-      <c r="M58" s="216"/>
-      <c r="N58" s="200"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
-      <c r="Q58" s="85"/>
-      <c r="R58" s="85"/>
-      <c r="S58" s="85"/>
+      <c r="A58" s="267"/>
+      <c r="B58" s="274"/>
+      <c r="C58" s="275"/>
+      <c r="D58" s="276"/>
+      <c r="E58" s="300"/>
+      <c r="F58" s="301"/>
+      <c r="G58" s="302"/>
+      <c r="H58" s="304"/>
+      <c r="I58" s="283"/>
+      <c r="J58" s="317"/>
+      <c r="K58" s="315"/>
+      <c r="L58" s="315"/>
+      <c r="M58" s="319"/>
+      <c r="N58" s="321"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="83"/>
+      <c r="R58" s="83"/>
+      <c r="S58" s="83"/>
     </row>
     <row r="59" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="299"/>
-      <c r="B59" s="240" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="241"/>
-      <c r="D59" s="241"/>
-      <c r="E59" s="241"/>
-      <c r="F59" s="241"/>
-      <c r="G59" s="241"/>
-      <c r="H59" s="242"/>
-      <c r="I59" s="158"/>
-      <c r="J59" s="158"/>
-      <c r="K59" s="158"/>
-      <c r="L59" s="158">
+      <c r="A59" s="267"/>
+      <c r="B59" s="335" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="336"/>
+      <c r="D59" s="336"/>
+      <c r="E59" s="336"/>
+      <c r="F59" s="336"/>
+      <c r="G59" s="336"/>
+      <c r="H59" s="337"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="156">
         <f>I59*K59</f>
         <v>0</v>
       </c>
-      <c r="M59" s="159">
+      <c r="M59" s="157">
         <v>70</v>
       </c>
-      <c r="N59" s="177">
+      <c r="N59" s="175">
         <f>L59*M59</f>
         <v>0</v>
       </c>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
-      <c r="Q59" s="85"/>
-      <c r="R59" s="85"/>
-      <c r="S59" s="85"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="83"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="237" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="238"/>
-      <c r="D60" s="238"/>
-      <c r="E60" s="238"/>
-      <c r="F60" s="238"/>
-      <c r="G60" s="238"/>
-      <c r="H60" s="238"/>
-      <c r="I60" s="238"/>
-      <c r="J60" s="238"/>
-      <c r="K60" s="239"/>
-      <c r="L60" s="160"/>
-      <c r="M60" s="161"/>
-      <c r="N60" s="162">
+      <c r="A60" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="332" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="333"/>
+      <c r="D60" s="333"/>
+      <c r="E60" s="333"/>
+      <c r="F60" s="333"/>
+      <c r="G60" s="333"/>
+      <c r="H60" s="333"/>
+      <c r="I60" s="333"/>
+      <c r="J60" s="333"/>
+      <c r="K60" s="334"/>
+      <c r="L60" s="158"/>
+      <c r="M60" s="159"/>
+      <c r="N60" s="160">
         <f>N33+N52+N53+N55+N57+N59</f>
         <v>10560</v>
       </c>
-      <c r="O60" s="180">
+      <c r="O60" s="176">
         <f>N60+N72</f>
         <v>14877</v>
       </c>
-      <c r="P60" s="85"/>
-      <c r="Q60" s="86"/>
-      <c r="R60" s="86"/>
-      <c r="S60" s="86"/>
+      <c r="P60" s="83"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="84"/>
+      <c r="S60" s="84"/>
     </row>
     <row r="61" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="243" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="139">
+      <c r="A61" s="338" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="137">
         <v>1</v>
       </c>
-      <c r="J61" s="95"/>
-      <c r="K61" s="98"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="100">
+      <c r="J61" s="93"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="97"/>
+      <c r="M61" s="98">
         <v>3315</v>
       </c>
-      <c r="N61" s="101">
+      <c r="N61" s="99">
         <f>I61*M61</f>
         <v>3315</v>
       </c>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
-      <c r="Q61" s="85"/>
-      <c r="R61" s="85"/>
-      <c r="S61" s="86"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="84"/>
     </row>
     <row r="62" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="243"/>
-      <c r="B62" s="95"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="139"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="98"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="101">
+      <c r="A62" s="338"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="97"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="99">
         <f>I62*M62</f>
         <v>0</v>
       </c>
-      <c r="O62" s="85"/>
-      <c r="P62" s="85"/>
-      <c r="Q62" s="85"/>
-      <c r="R62" s="85"/>
-      <c r="S62" s="85"/>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="83"/>
+      <c r="R62" s="83"/>
+      <c r="S62" s="83"/>
     </row>
     <row r="63" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="243"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="98"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="100"/>
-      <c r="N63" s="101"/>
-      <c r="O63" s="85"/>
-      <c r="P63" s="85"/>
-      <c r="Q63" s="85"/>
-      <c r="R63" s="85"/>
-      <c r="S63" s="85"/>
+      <c r="A63" s="338"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="97"/>
+      <c r="M63" s="98"/>
+      <c r="N63" s="99"/>
+      <c r="O63" s="83"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="83"/>
+      <c r="R63" s="83"/>
+      <c r="S63" s="83"/>
     </row>
     <row r="64" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="243"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="105"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="100"/>
-      <c r="N64" s="101"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="124"/>
-      <c r="Q64" s="85"/>
-      <c r="R64" s="85"/>
-      <c r="S64" s="85"/>
+      <c r="A64" s="338"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="95"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="103"/>
+      <c r="L64" s="97"/>
+      <c r="M64" s="98"/>
+      <c r="N64" s="99"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="122"/>
+      <c r="Q64" s="83"/>
+      <c r="R64" s="83"/>
+      <c r="S64" s="83"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="237" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="238"/>
-      <c r="D65" s="238"/>
-      <c r="E65" s="238"/>
-      <c r="F65" s="238"/>
-      <c r="G65" s="238"/>
-      <c r="H65" s="238"/>
-      <c r="I65" s="238"/>
-      <c r="J65" s="238"/>
-      <c r="K65" s="239"/>
-      <c r="L65" s="163"/>
-      <c r="M65" s="164"/>
-      <c r="N65" s="165">
+      <c r="A65" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="332" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="333"/>
+      <c r="D65" s="333"/>
+      <c r="E65" s="333"/>
+      <c r="F65" s="333"/>
+      <c r="G65" s="333"/>
+      <c r="H65" s="333"/>
+      <c r="I65" s="333"/>
+      <c r="J65" s="333"/>
+      <c r="K65" s="334"/>
+      <c r="L65" s="161"/>
+      <c r="M65" s="162"/>
+      <c r="N65" s="163">
         <f>SUM(N61:N64)</f>
         <v>3315</v>
       </c>
-      <c r="O65" s="85"/>
-      <c r="P65" s="85"/>
-      <c r="Q65" s="85"/>
-      <c r="R65" s="85"/>
-      <c r="S65" s="85"/>
+      <c r="O65" s="83"/>
+      <c r="P65" s="83"/>
+      <c r="Q65" s="83"/>
+      <c r="R65" s="83"/>
+      <c r="S65" s="83"/>
     </row>
     <row r="66" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="244" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="140"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="108">
+      <c r="A66" s="339" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="138"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="106">
         <v>1</v>
       </c>
-      <c r="J66" s="109"/>
-      <c r="K66" s="109"/>
-      <c r="L66" s="110"/>
-      <c r="M66" s="132">
+      <c r="J66" s="107"/>
+      <c r="K66" s="107"/>
+      <c r="L66" s="108"/>
+      <c r="M66" s="130">
         <v>1235</v>
       </c>
-      <c r="N66" s="111">
+      <c r="N66" s="109">
         <f>I66*M66</f>
         <v>1235</v>
       </c>
-      <c r="O66" s="85"/>
-      <c r="P66" s="85"/>
-      <c r="Q66" s="85"/>
-      <c r="R66" s="85"/>
-      <c r="S66" s="85"/>
+      <c r="O66" s="83"/>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="83"/>
+      <c r="R66" s="83"/>
+      <c r="S66" s="83"/>
     </row>
     <row r="67" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="245"/>
-      <c r="B67" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="134"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="98">
+      <c r="A67" s="340"/>
+      <c r="B67" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="132"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="96">
         <v>1</v>
       </c>
-      <c r="J67" s="112"/>
-      <c r="K67" s="112"/>
-      <c r="L67" s="113"/>
-      <c r="M67" s="132">
+      <c r="J67" s="110"/>
+      <c r="K67" s="110"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="130">
         <v>2076</v>
       </c>
-      <c r="N67" s="136">
+      <c r="N67" s="134">
         <f>I67*M67</f>
         <v>2076</v>
       </c>
-      <c r="O67" s="85"/>
-      <c r="P67" s="85"/>
-      <c r="Q67" s="96"/>
-      <c r="R67" s="85"/>
-      <c r="S67" s="85"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="83"/>
+      <c r="S67" s="83"/>
     </row>
     <row r="68" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="245"/>
-      <c r="B68" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="134"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="98">
+      <c r="A68" s="340"/>
+      <c r="B68" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="132"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="96">
         <v>1</v>
       </c>
-      <c r="J68" s="112"/>
-      <c r="K68" s="112"/>
-      <c r="L68" s="113"/>
-      <c r="M68" s="114">
+      <c r="J68" s="110"/>
+      <c r="K68" s="110"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="112">
         <v>1006</v>
       </c>
-      <c r="N68" s="136">
+      <c r="N68" s="134">
         <f>I68*M68</f>
         <v>1006</v>
       </c>
-      <c r="O68" s="85"/>
-      <c r="P68" s="85"/>
-      <c r="Q68" s="85"/>
-      <c r="R68" s="85"/>
-      <c r="S68" s="85"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="83"/>
+      <c r="Q68" s="83"/>
+      <c r="R68" s="83"/>
+      <c r="S68" s="83"/>
     </row>
     <row r="69" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="245"/>
-      <c r="B69" s="138"/>
-      <c r="C69" s="134"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="98"/>
-      <c r="J69" s="112"/>
-      <c r="K69" s="112"/>
-      <c r="L69" s="98"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="111"/>
-      <c r="O69" s="85"/>
-      <c r="P69" s="85"/>
-      <c r="Q69" s="85"/>
-      <c r="R69" s="85"/>
-      <c r="S69" s="85"/>
+      <c r="A69" s="340"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="110"/>
+      <c r="K69" s="110"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="112"/>
+      <c r="N69" s="109"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="83"/>
+      <c r="R69" s="83"/>
+      <c r="S69" s="83"/>
     </row>
     <row r="70" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="245"/>
-      <c r="B70" s="138"/>
-      <c r="C70" s="134"/>
-      <c r="D70" s="135"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="135"/>
-      <c r="G70" s="135"/>
-      <c r="H70" s="135"/>
-      <c r="I70" s="139"/>
-      <c r="J70" s="137"/>
-      <c r="K70" s="137"/>
-      <c r="L70" s="139"/>
-      <c r="M70" s="132"/>
-      <c r="N70" s="136"/>
-      <c r="O70" s="133"/>
-      <c r="P70" s="133"/>
-      <c r="Q70" s="133"/>
-      <c r="R70" s="133"/>
-      <c r="S70" s="133"/>
+      <c r="A70" s="340"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="133"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="133"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="137"/>
+      <c r="J70" s="135"/>
+      <c r="K70" s="135"/>
+      <c r="L70" s="137"/>
+      <c r="M70" s="130"/>
+      <c r="N70" s="134"/>
+      <c r="O70" s="131"/>
+      <c r="P70" s="131"/>
+      <c r="Q70" s="131"/>
+      <c r="R70" s="131"/>
+      <c r="S70" s="131"/>
     </row>
     <row r="71" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="245"/>
-      <c r="B71" s="138"/>
-      <c r="C71" s="134"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="116"/>
-      <c r="F71" s="116"/>
-      <c r="G71" s="116"/>
-      <c r="H71" s="116"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="93"/>
-      <c r="K71" s="93"/>
-      <c r="L71" s="117"/>
-      <c r="M71" s="118"/>
-      <c r="N71" s="119"/>
-      <c r="O71" s="85"/>
-      <c r="P71" s="85"/>
-      <c r="Q71" s="86"/>
-      <c r="R71" s="85"/>
-      <c r="S71" s="85"/>
+      <c r="A71" s="340"/>
+      <c r="B71" s="136"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="115"/>
+      <c r="M71" s="116"/>
+      <c r="N71" s="117"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="83"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="237" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="238"/>
-      <c r="D72" s="238"/>
-      <c r="E72" s="238"/>
-      <c r="F72" s="238"/>
-      <c r="G72" s="238"/>
-      <c r="H72" s="238"/>
-      <c r="I72" s="238"/>
-      <c r="J72" s="238"/>
-      <c r="K72" s="239"/>
-      <c r="L72" s="166"/>
-      <c r="M72" s="167"/>
-      <c r="N72" s="165">
+      <c r="A72" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="332" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="333"/>
+      <c r="D72" s="333"/>
+      <c r="E72" s="333"/>
+      <c r="F72" s="333"/>
+      <c r="G72" s="333"/>
+      <c r="H72" s="333"/>
+      <c r="I72" s="333"/>
+      <c r="J72" s="333"/>
+      <c r="K72" s="334"/>
+      <c r="L72" s="164"/>
+      <c r="M72" s="165"/>
+      <c r="N72" s="163">
         <f>SUM(N66:N71)</f>
         <v>4317</v>
       </c>
-      <c r="O72" s="85"/>
-      <c r="P72" s="120"/>
-      <c r="Q72" s="121"/>
-      <c r="R72" s="121"/>
-      <c r="S72" s="121"/>
+      <c r="O72" s="83"/>
+      <c r="P72" s="118"/>
+      <c r="Q72" s="119"/>
+      <c r="R72" s="119"/>
+      <c r="S72" s="119"/>
     </row>
     <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="234" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="235"/>
-      <c r="C73" s="235"/>
-      <c r="D73" s="235"/>
-      <c r="E73" s="235"/>
-      <c r="F73" s="235"/>
-      <c r="G73" s="235"/>
-      <c r="H73" s="235"/>
-      <c r="I73" s="235"/>
-      <c r="J73" s="235"/>
-      <c r="K73" s="235"/>
-      <c r="L73" s="235"/>
-      <c r="M73" s="236"/>
-      <c r="N73" s="122"/>
-      <c r="O73" s="85"/>
-      <c r="P73" s="120"/>
-      <c r="Q73" s="121"/>
-      <c r="R73" s="121"/>
-      <c r="S73" s="121"/>
+      <c r="A73" s="329" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="330"/>
+      <c r="C73" s="330"/>
+      <c r="D73" s="330"/>
+      <c r="E73" s="330"/>
+      <c r="F73" s="330"/>
+      <c r="G73" s="330"/>
+      <c r="H73" s="330"/>
+      <c r="I73" s="330"/>
+      <c r="J73" s="330"/>
+      <c r="K73" s="330"/>
+      <c r="L73" s="330"/>
+      <c r="M73" s="331"/>
+      <c r="N73" s="120"/>
+      <c r="O73" s="83"/>
+      <c r="P73" s="118"/>
+      <c r="Q73" s="119"/>
+      <c r="R73" s="119"/>
+      <c r="S73" s="119"/>
     </row>
     <row r="74" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="231" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="232"/>
-      <c r="C74" s="232"/>
-      <c r="D74" s="232"/>
-      <c r="E74" s="232"/>
-      <c r="F74" s="232"/>
-      <c r="G74" s="232"/>
-      <c r="H74" s="232"/>
-      <c r="I74" s="232"/>
-      <c r="J74" s="232"/>
-      <c r="K74" s="232"/>
-      <c r="L74" s="232"/>
-      <c r="M74" s="233"/>
-      <c r="N74" s="176">
+      <c r="A74" s="326" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="327"/>
+      <c r="C74" s="327"/>
+      <c r="D74" s="327"/>
+      <c r="E74" s="327"/>
+      <c r="F74" s="327"/>
+      <c r="G74" s="327"/>
+      <c r="H74" s="327"/>
+      <c r="I74" s="327"/>
+      <c r="J74" s="327"/>
+      <c r="K74" s="327"/>
+      <c r="L74" s="327"/>
+      <c r="M74" s="328"/>
+      <c r="N74" s="174">
         <f>SUM(N60+N65+N72+N73)</f>
         <v>18192</v>
       </c>
-      <c r="O74" s="85"/>
-      <c r="P74" s="121"/>
-      <c r="Q74" s="121"/>
-      <c r="R74" s="121"/>
-      <c r="S74" s="121"/>
+      <c r="O74" s="83"/>
+      <c r="P74" s="119"/>
+      <c r="Q74" s="119"/>
+      <c r="R74" s="119"/>
+      <c r="S74" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="A74:M74"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B72:K72"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B65:K65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="G46:G51"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="E53:G58"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="E34:E52"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A9:A59"/>
+    <mergeCell ref="B9:D58"/>
+    <mergeCell ref="E9:E33"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -6064,190 +6342,6 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A9:A59"/>
-    <mergeCell ref="B9:D58"/>
-    <mergeCell ref="E9:E33"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="G46:G51"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="E53:G58"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="E34:E52"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="G34:G39"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="A74:M74"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B72:K72"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B65:K65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M21:M22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
